--- a/Structure/1 - Whole System/EnBalanceDataktoe.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataktoe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{960C59D6-3E39-4271-808F-FCF679F72810}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF2D0E-9A48-456A-ACA2-9E8D1A114E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5490" yWindow="8960" windowWidth="14400" windowHeight="7670" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,22 +704,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="15">
-        <v>401.93995414158786</v>
+        <v>268.31704404318333</v>
       </c>
       <c r="C5" s="15">
-        <v>52926.146686182503</v>
+        <v>53880.771466865459</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="16">
-        <v>24122.958278160062</v>
+        <v>19933.868521867742</v>
       </c>
       <c r="F5" s="16">
-        <v>757.20375649635287</v>
+        <v>761.88279159088006</v>
       </c>
       <c r="G5" s="15">
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>13</v>
@@ -728,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="15">
-        <v>83242.262338326065</v>
+        <v>80140.718207034646</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -736,31 +736,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="15">
-        <v>3.3916809974204643E-5</v>
+        <v>1.6522282889079966E-3</v>
       </c>
       <c r="C6" s="15">
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
       <c r="D6" s="15">
-        <v>3176.6055366253076</v>
+        <v>2518.9822702540778</v>
       </c>
       <c r="E6" s="16">
-        <v>14063.185452902055</v>
+        <v>9496.9802780032915</v>
       </c>
       <c r="F6" s="16">
-        <v>241.11632141442743</v>
+        <v>318.2905208254225</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="15">
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="15">
-        <v>23670.795030303067</v>
+        <v>19544.04078303666</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -771,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="13">
-        <v>6090.2525177746411</v>
+        <v>7102.8528716997844</v>
       </c>
       <c r="D7" s="13">
-        <v>2446.5685462545644</v>
+        <v>1800.0823071540851</v>
       </c>
       <c r="E7" s="13">
-        <v>14051.762682717188</v>
+        <v>9459.2330180568024</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>13</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="13">
-        <v>730.03699037074352</v>
+        <v>718.89996309999276</v>
       </c>
       <c r="E8" s="17">
-        <v>11.422770184866787</v>
+        <v>37.747259946489457</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>13</v>
@@ -818,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="13">
-        <v>99.635167669819978</v>
+        <v>106.93319002579594</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>13</v>
@@ -832,31 +832,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="15">
-        <v>-275.65451944274798</v>
+        <v>-146.75665254628672</v>
       </c>
       <c r="C9" s="15">
-        <v>-47955.704136857777</v>
+        <v>-50098.135206804145</v>
       </c>
       <c r="D9" s="15">
-        <v>-5979.4983924660055</v>
+        <v>-5063.1736514944141</v>
       </c>
       <c r="E9" s="16">
-        <v>-28722.282377307893</v>
+        <v>-20211.234950617345</v>
       </c>
       <c r="F9" s="16">
-        <v>-16.021582286988252</v>
+        <v>-23.524761072446633</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="15">
-        <v>-1261.8843508168598</v>
+        <v>-1470.0959587274372</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="15">
-        <v>-84211.045359178286</v>
+        <v>-77012.921181262078</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -867,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="13">
-        <v>-22787.404014714884</v>
+        <v>-37699.575165462295</v>
       </c>
       <c r="D10" s="13">
-        <v>-5596.7122406302451</v>
+        <v>-3237.4766739010074</v>
       </c>
       <c r="E10" s="17">
-        <v>-1679.1112652649533</v>
+        <v>-2676.3533963886648</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>13</v>
@@ -899,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="13">
-        <v>-25168.300122142897</v>
+        <v>-12398.560041341847</v>
       </c>
       <c r="D11" s="13">
-        <v>-382.78615183576028</v>
+        <v>-1825.6969775934067</v>
       </c>
       <c r="E11" s="17">
-        <v>-27043.171112042939</v>
+        <v>-17534.881554228679</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>13</v>
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="13">
-        <v>-1261.8843508168598</v>
+        <v>-1470.0959587274372</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>13</v>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="15">
-        <v>-1002.590149267652</v>
+        <v>-958.02668640858701</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>13</v>
@@ -952,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="15">
-        <v>-1002.590149267652</v>
+        <v>-958.02668640858701</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <v>44.849882055171939</v>
+        <v>-14.206701935079563</v>
       </c>
       <c r="D13" s="15">
-        <v>44.719879280166758</v>
+        <v>-97.10881951224259</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>13</v>
@@ -984,7 +984,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="15">
-        <v>89.569761335338697</v>
+        <v>-111.31552144732215</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -992,31 +992,31 @@
         <v>20</v>
       </c>
       <c r="B14" s="19">
-        <v>126.28546861564988</v>
+        <v>121.56204372518552</v>
       </c>
       <c r="C14" s="19">
-        <v>11105.544949154541</v>
+        <v>10871.282429826017</v>
       </c>
       <c r="D14" s="19">
-        <v>-3760.7631258281831</v>
+        <v>-3599.3268871611658</v>
       </c>
       <c r="E14" s="20">
-        <v>9463.861353754226</v>
+        <v>9219.6138492536884</v>
       </c>
       <c r="F14" s="20">
-        <v>981.73236197407516</v>
+        <v>1056.6664393845497</v>
       </c>
       <c r="G14" s="19">
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
       <c r="H14" s="19">
-        <v>-1162.2491831470397</v>
+        <v>-1363.1627687016412</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="19">
-        <v>21788.425487868826</v>
+        <v>21602.51348899402</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="19">
-        <v>-1.1240450149512071</v>
+        <v>-2.504987554365016</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="15">
-        <v>-1.1240450149512071</v>
+        <v>-2.504987554365016</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1056,31 +1056,31 @@
         <v>22</v>
       </c>
       <c r="B16" s="19">
-        <v>126.28546861564988</v>
+        <v>121.56204372518552</v>
       </c>
       <c r="C16" s="19">
-        <v>11105.544949154537</v>
+        <v>10871.282429826017</v>
       </c>
       <c r="D16" s="19">
-        <v>-3761.8871708431343</v>
+        <v>-3601.8318747155308</v>
       </c>
       <c r="E16" s="20">
-        <v>9463.8613537542296</v>
+        <v>9219.6138492536884</v>
       </c>
       <c r="F16" s="20">
-        <v>981.73236197407516</v>
+        <v>1056.6664393845497</v>
       </c>
       <c r="G16" s="19">
-        <v>5034.0136633455586</v>
+        <v>5295.878382667388</v>
       </c>
       <c r="H16" s="19">
-        <v>-1162.2491831470397</v>
+        <v>-1363.1627687016407</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="19">
-        <v>21787.301442853874</v>
+        <v>21600.008501439657</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1091,10 +1091,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="15">
-        <v>-1930.4810265331166</v>
+        <v>-1074.9540430790682</v>
       </c>
       <c r="D17" s="15">
-        <v>1930.4810265331166</v>
+        <v>1074.9540430790682</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>13</v>
@@ -1103,10 +1103,10 @@
         <v>13</v>
       </c>
       <c r="G17" s="15">
-        <v>-2092.7724080189364</v>
+        <v>-2411.7790870058489</v>
       </c>
       <c r="H17" s="15">
-        <v>2092.7724080189364</v>
+        <v>2411.7790870058489</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>13</v>
@@ -1123,28 +1123,28 @@
         <v>0</v>
       </c>
       <c r="C18" s="15">
-        <v>-9175.0639226214207</v>
+        <v>-9796.328386746949</v>
       </c>
       <c r="D18" s="15">
-        <v>8940.7948701448513</v>
+        <v>9591.398370709032</v>
       </c>
       <c r="E18" s="15">
-        <v>-1478.3858772496594</v>
+        <v>-1232.6294866925787</v>
       </c>
       <c r="F18" s="15">
-        <v>-544.66443420107191</v>
+        <v>-620.37171068291354</v>
       </c>
       <c r="G18" s="15">
-        <v>-2941.2412553266217</v>
+        <v>-2884.0992956615391</v>
       </c>
       <c r="H18" s="15">
-        <v>2054.8110221894326</v>
+        <v>1884.8186415140672</v>
       </c>
       <c r="I18" s="15">
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
       <c r="J18" s="15">
-        <v>-3024.8976446766983</v>
+        <v>-2936.838365586686</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1158,25 +1158,25 @@
         <v>13</v>
       </c>
       <c r="D19" s="13">
-        <v>-122.20203054151465</v>
+        <v>-58.259009310215809</v>
       </c>
       <c r="E19" s="13">
-        <v>-1296.428062330529</v>
+        <v>-1065.2483646981811</v>
       </c>
       <c r="F19" s="13">
-        <v>-533.195107588528</v>
+        <v>-607.37989438649879</v>
       </c>
       <c r="G19" s="13">
-        <v>-2941.2412553266217</v>
+        <v>-2884.0992956615391</v>
       </c>
       <c r="H19" s="13">
-        <v>2054.8110221894326</v>
+        <v>1884.8186415140672</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="13">
-        <v>-2838.2554335977607</v>
+        <v>-2730.1679225423677</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1187,10 +1187,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="13">
-        <v>-9175.0639226214207</v>
+        <v>-9796.328386746949</v>
       </c>
       <c r="D20" s="13">
-        <v>9125.3215529965692</v>
+        <v>9710.4043087511691</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>13</v>
@@ -1208,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="13">
-        <v>-49.742369624851563</v>
+        <v>-85.924077995779953</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1222,13 +1222,13 @@
         <v>13</v>
       </c>
       <c r="D21" s="13">
-        <v>-62.324652310203362</v>
+        <v>-60.746928731921706</v>
       </c>
       <c r="E21" s="13">
-        <v>-181.95781491913053</v>
+        <v>-167.3811219943974</v>
       </c>
       <c r="F21" s="13">
-        <v>-11.46932661254391</v>
+        <v>-12.991816296414754</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>13</v>
@@ -1237,10 +1237,10 @@
         <v>13</v>
       </c>
       <c r="I21" s="13">
-        <v>118.85195238779175</v>
+        <v>120.37350197419499</v>
       </c>
       <c r="J21" s="13">
-        <v>-136.89984145408604</v>
+        <v>-120.74636504853888</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1254,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="15">
-        <v>581.86315444322327</v>
+        <v>568.97494595307262</v>
       </c>
       <c r="E22" s="15">
-        <v>3761.5887271162856</v>
+        <v>3833.7355174050408</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>13</v>
@@ -1266,13 +1266,13 @@
         <v>13</v>
       </c>
       <c r="H22" s="15">
-        <v>430.6151697031857</v>
+        <v>407.10885253917718</v>
       </c>
       <c r="I22" s="15">
-        <v>30.554445938952057</v>
+        <v>22.76259807049712</v>
       </c>
       <c r="J22" s="15">
-        <v>4804.6214972016469</v>
+        <v>4832.5819139677869</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1280,31 +1280,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="19">
-        <v>126.28546861564988</v>
+        <v>121.56204372518552</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="19">
-        <v>6527.5255713916094</v>
+        <v>6495.5455931194965</v>
       </c>
       <c r="E23" s="19">
-        <v>4223.8867493882835</v>
+        <v>4153.2488451560685</v>
       </c>
       <c r="F23" s="19">
-        <v>437.06792777300325</v>
+        <v>436.29472870163607</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="19">
-        <v>2554.7190773581437</v>
+        <v>2526.3261072790979</v>
       </c>
       <c r="I23" s="19">
-        <v>88.297506448839698</v>
+        <v>97.610903903697874</v>
       </c>
       <c r="J23" s="19">
-        <v>13957.78230097553</v>
+        <v>13830.588221885182</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1318,10 +1318,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="13">
-        <v>1125.2647513822537</v>
+        <v>1013.6220410826397</v>
       </c>
       <c r="E24" s="13">
-        <v>59.263883971473689</v>
+        <v>57.485361213904547</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>13</v>
@@ -1333,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="I24" s="13">
-        <v>52.619899118795843</v>
+        <v>61.437384387783851</v>
       </c>
       <c r="J24" s="13">
-        <v>1237.1485344725234</v>
+        <v>1132.5447866843281</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1344,31 +1344,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="13">
-        <v>80.37196056133088</v>
+        <v>75.994609340656879</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="13">
-        <v>177.56837512603184</v>
+        <v>183.1933860296034</v>
       </c>
       <c r="E25" s="13">
-        <v>935.55392882101103</v>
+        <v>872.78652624471704</v>
       </c>
       <c r="F25" s="13">
-        <v>98.132461902953565</v>
+        <v>87.149772298636236</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="13">
-        <v>714.94006808840356</v>
+        <v>718.46919819610491</v>
       </c>
       <c r="I25" s="13">
-        <v>9.4953201417375954</v>
+        <v>9.6805474918382135</v>
       </c>
       <c r="J25" s="13">
-        <v>2016.0621146414685</v>
+        <v>1947.2740396015565</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1376,31 +1376,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="13">
-        <v>43.430782459157591</v>
+        <v>43.434813440240994</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="13">
-        <v>263.14447083901541</v>
+        <v>267.62779263426745</v>
       </c>
       <c r="E26" s="13">
-        <v>2355.44966903881</v>
+        <v>2368.0909619473405</v>
       </c>
       <c r="F26" s="13">
-        <v>160.10730182375826</v>
+        <v>146.08165232597258</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="13">
-        <v>1059.1373970396792</v>
+        <v>1025.0792974316162</v>
       </c>
       <c r="I26" s="13">
-        <v>26.182287188306248</v>
+        <v>26.49297201977658</v>
       </c>
       <c r="J26" s="13">
-        <v>3907.4519083887267</v>
+        <v>3876.8074897992142</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1408,31 +1408,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="13">
-        <v>0.36113499570077584</v>
+        <v>0.36516395699914211</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="13">
-        <v>4449.0157472838027</v>
+        <v>4496.7727021550672</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="13">
-        <v>92.185039969441235</v>
+        <v>115.6831013480523</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="13">
-        <v>38.348248213293964</v>
+        <v>42.785328417037135</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="13">
-        <v>4579.910170462239</v>
+        <v>4655.6062958771554</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1440,31 +1440,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="13">
-        <v>2.1129921471820268</v>
+        <v>1.7674569872885257</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="13">
-        <v>512.53222676050734</v>
+        <v>534.32967121791887</v>
       </c>
       <c r="E28" s="13">
-        <v>873.61926755698801</v>
+        <v>854.88599575010585</v>
       </c>
       <c r="F28" s="13">
-        <v>86.643124076850185</v>
+        <v>87.380202728974979</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="13">
-        <v>742.29336401676699</v>
+        <v>739.99228323433954</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="13">
-        <v>2217.2009745582945</v>
+        <v>2218.355609918628</v>
       </c>
     </row>
   </sheetData>
